--- a/Documents/Cronograma.xlsx
+++ b/Documents/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PUC-Rio\Princípios Eng. de Software\INF1629---PRINCIPIOS-ENG-DE-SOFTWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A784694-792F-4AB7-A680-2888870563D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F84BF-65EF-B34C-BCDB-BBDDAB78C0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agendamento de Tarefas" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>controle 2</t>
   </si>
   <si>
-    <t>18/05/2020 - 30/05/2020</t>
-  </si>
-  <si>
     <t>Especificação dos requisitos do projeto</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>controle 3</t>
   </si>
   <si>
-    <t>01/06/2020 - 20/06/2020</t>
-  </si>
-  <si>
     <t>Inicio da implementação</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>controle 4</t>
   </si>
   <si>
-    <t>22/06/2020 - 02/07/2020</t>
-  </si>
-  <si>
     <t>Entrega final</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>Coluna1</t>
+  </si>
+  <si>
+    <t>18/05/2020 - 26/05/2020</t>
+  </si>
+  <si>
+    <t>27/05/2020 - 04/06/2020</t>
+  </si>
+  <si>
+    <t>05/06/2020 - 23/07/2020</t>
   </si>
 </sst>
 </file>
@@ -310,15 +310,14 @@
       <name val="Trebuchet MS (Corpo)"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FF637145"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,8 +515,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -657,6 +662,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF1EEEA"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF1EEEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF1EEEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -820,8 +838,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1378,20 +1405,20 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
     <col min="3" max="5" width="17.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.1" customHeight="1">
+    <row r="1" spans="1:6" ht="35" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1426,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1419,7 +1446,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
+    <row r="4" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
@@ -1444,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -1482,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
         <v>43972</v>
@@ -1491,15 +1518,15 @@
         <v>43972</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="35.1" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="35" customHeight="1">
       <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
         <v>43972</v>
@@ -1510,11 +1537,11 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
         <v>43972</v>
@@ -1524,7 +1551,7 @@
       </c>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
+    <row r="11" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -1537,14 +1564,14 @@
     <row r="12" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
         <v>15</v>
@@ -1572,11 +1599,11 @@
     </row>
     <row r="15" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>8</v>
+      <c r="B15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="27">
         <v>43972</v>
@@ -1588,150 +1615,172 @@
     </row>
     <row r="16" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>8</v>
+      <c r="B16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="27">
         <v>43972</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="28">
+        <v>43973</v>
+      </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="28">
+        <v>43976</v>
+      </c>
+      <c r="E17" s="28">
+        <v>43973</v>
+      </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="34">
+        <v>43977</v>
+      </c>
+      <c r="E18" s="34">
+        <v>43977</v>
+      </c>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="34">
+        <v>43977</v>
+      </c>
+      <c r="E19" s="34">
+        <v>43977</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" s="24" customFormat="1" ht="39" customHeight="1">
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="34">
+        <v>43977</v>
+      </c>
+      <c r="E20" s="34">
+        <v>43977</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" s="24" customFormat="1" ht="39" customHeight="1">
-      <c r="B20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="B21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="34">
+        <v>43977</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43977</v>
+      </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
-        <v>0</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="16" t="s">
+    <row r="25" spans="1:6" s="21" customFormat="1" ht="39" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="B26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="C27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>8</v>
@@ -1740,79 +1789,79 @@
       <c r="E28" s="28"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
+    <row r="29" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
-        <v>0</v>
+      <c r="B31" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="18"/>
+      <c r="C34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="B35" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>8</v>
@@ -1823,7 +1872,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>8</v>
